--- a/baseDesign/基本設計-宿題/画面遷移図とレイアウト-肖.xlsx
+++ b/baseDesign/基本設計-宿題/画面遷移図とレイアウト-肖.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/基本設計書-天時情報システム/基本設計-宿題/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qijinghong/Documents/tenji-sys/baseDesign/基本設計-宿題/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64410122-557B-4D49-B72E-4C9794121009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3844247F-4EF5-DE44-BEBB-F9F626445D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7753,7 +7753,7 @@
   <dimension ref="B5:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
